--- a/REPORTE_LLAMADAS_IN_OUT_AIBECLOUD_git.xlsx
+++ b/REPORTE_LLAMADAS_IN_OUT_AIBECLOUD_git.xlsx
@@ -2843,7 +2843,7 @@
     <t>29/04/2022</t>
   </si>
   <si>
-    <t>200_300</t>
+    <t>200-300</t>
   </si>
   <si>
     <t>YAYAYA</t>
